--- a/natmiOut/OldD2/LR-pairs_lrc2p/Agrp-Sdc3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Agrp-Sdc3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>Agrp</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.09442375279352</v>
+        <v>0.222768</v>
       </c>
       <c r="H2">
-        <v>1.09442375279352</v>
+        <v>0.668304</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1614015648347147</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1614015648347147</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.5601779929463</v>
+        <v>30.0270995</v>
       </c>
       <c r="N2">
-        <v>29.5601779929463</v>
+        <v>60.054199</v>
       </c>
       <c r="O2">
-        <v>0.1350562120828969</v>
+        <v>0.1342326156631674</v>
       </c>
       <c r="P2">
-        <v>0.1350562120828969</v>
+        <v>0.09453939633554115</v>
       </c>
       <c r="Q2">
-        <v>32.35136093228471</v>
+        <v>6.689076901416</v>
       </c>
       <c r="R2">
-        <v>32.35136093228471</v>
+        <v>40.134461408496</v>
       </c>
       <c r="S2">
-        <v>0.1350562120828969</v>
+        <v>0.02166535421989206</v>
       </c>
       <c r="T2">
-        <v>0.1350562120828969</v>
+        <v>0.01525880650708564</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.09442375279352</v>
+        <v>0.222768</v>
       </c>
       <c r="H3">
-        <v>1.09442375279352</v>
+        <v>0.668304</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.1614015648347147</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1614015648347147</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.83407534301061</v>
+        <v>5.359535</v>
       </c>
       <c r="N3">
-        <v>4.83407534301061</v>
+        <v>16.078605</v>
       </c>
       <c r="O3">
-        <v>0.02208619666992983</v>
+        <v>0.02395917067475312</v>
       </c>
       <c r="P3">
-        <v>0.02208619666992983</v>
+        <v>0.02531149588087277</v>
       </c>
       <c r="Q3">
-        <v>5.290526878184294</v>
+        <v>1.19393289288</v>
       </c>
       <c r="R3">
-        <v>5.290526878184294</v>
+        <v>10.74539603592</v>
       </c>
       <c r="S3">
-        <v>0.02208619666992983</v>
+        <v>0.003867047639047162</v>
       </c>
       <c r="T3">
-        <v>0.02208619666992983</v>
+        <v>0.004085315043480302</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.09442375279352</v>
+        <v>0.222768</v>
       </c>
       <c r="H4">
-        <v>1.09442375279352</v>
+        <v>0.668304</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.1614015648347147</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.1614015648347147</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.5177728577442</v>
+        <v>63.82578633333333</v>
       </c>
       <c r="N4">
-        <v>61.5177728577442</v>
+        <v>191.477359</v>
       </c>
       <c r="O4">
-        <v>0.2810658778822488</v>
+        <v>0.2853256687773582</v>
       </c>
       <c r="P4">
-        <v>0.2810658778822488</v>
+        <v>0.3014302785352894</v>
       </c>
       <c r="Q4">
-        <v>67.32651183447176</v>
+        <v>14.218342769904</v>
       </c>
       <c r="R4">
-        <v>67.32651183447176</v>
+        <v>127.965084929136</v>
       </c>
       <c r="S4">
-        <v>0.2810658778822488</v>
+        <v>0.04605200942817712</v>
       </c>
       <c r="T4">
-        <v>0.2810658778822488</v>
+        <v>0.04865131864415964</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.09442375279352</v>
+        <v>0.222768</v>
       </c>
       <c r="H5">
-        <v>1.09442375279352</v>
+        <v>0.668304</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.1614015648347147</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.1614015648347147</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>92.4534242232107</v>
+        <v>93.36864199999998</v>
       </c>
       <c r="N5">
-        <v>92.4534242232107</v>
+        <v>280.105926</v>
       </c>
       <c r="O5">
-        <v>0.4224064304572021</v>
+        <v>0.4173935293543045</v>
       </c>
       <c r="P5">
-        <v>0.4224064304572021</v>
+        <v>0.4409524328856299</v>
       </c>
       <c r="Q5">
-        <v>101.1832234969776</v>
+        <v>20.799545641056</v>
       </c>
       <c r="R5">
-        <v>101.1832234969776</v>
+        <v>187.195910769504</v>
       </c>
       <c r="S5">
-        <v>0.4224064304572021</v>
+        <v>0.06736796878966918</v>
       </c>
       <c r="T5">
-        <v>0.4224064304572021</v>
+        <v>0.07117041268541519</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.09442375279352</v>
+        <v>0.222768</v>
       </c>
       <c r="H6">
-        <v>1.09442375279352</v>
+        <v>0.668304</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.1614015648347147</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.1614015648347147</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.7245201266189</v>
+        <v>25.286359</v>
       </c>
       <c r="N6">
-        <v>24.7245201266189</v>
+        <v>75.859077</v>
       </c>
       <c r="O6">
-        <v>0.1129627850909863</v>
+        <v>0.1130396930002472</v>
       </c>
       <c r="P6">
-        <v>0.1129627850909863</v>
+        <v>0.1194199817093778</v>
       </c>
       <c r="Q6">
-        <v>27.05910210299317</v>
+        <v>5.632991621712</v>
       </c>
       <c r="R6">
-        <v>27.05910210299317</v>
+        <v>50.696924595408</v>
       </c>
       <c r="S6">
-        <v>0.1129627850909863</v>
+        <v>0.01824478333867564</v>
       </c>
       <c r="T6">
-        <v>0.1129627850909863</v>
+        <v>0.01927457192042659</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -850,49 +850,793 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>1.09442375279352</v>
+        <v>0.222768</v>
       </c>
       <c r="H7">
-        <v>1.09442375279352</v>
+        <v>0.668304</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.1614015648347147</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.1614015648347147</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.78317521597262</v>
+        <v>5.8270905</v>
       </c>
       <c r="N7">
-        <v>5.78317521597262</v>
+        <v>11.654181</v>
       </c>
       <c r="O7">
-        <v>0.02642249781673602</v>
+        <v>0.0260493225301696</v>
       </c>
       <c r="P7">
-        <v>0.02642249781673602</v>
+        <v>0.01834641465328899</v>
       </c>
       <c r="Q7">
-        <v>6.329244322927231</v>
+        <v>1.298089296504</v>
       </c>
       <c r="R7">
-        <v>6.329244322927231</v>
+        <v>7.788535779024</v>
       </c>
       <c r="S7">
-        <v>0.02642249781673602</v>
+        <v>0.004204401419253563</v>
       </c>
       <c r="T7">
-        <v>0.02642249781673602</v>
+        <v>0.002961140034147384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.105368666666666</v>
+      </c>
+      <c r="H8">
+        <v>3.316106</v>
+      </c>
+      <c r="I8">
+        <v>0.8008701093481206</v>
+      </c>
+      <c r="J8">
+        <v>0.8008701093481208</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>30.0270995</v>
+      </c>
+      <c r="N8">
+        <v>60.054199</v>
+      </c>
+      <c r="O8">
+        <v>0.1342326156631674</v>
+      </c>
+      <c r="P8">
+        <v>0.09453939633554115</v>
+      </c>
+      <c r="Q8">
+        <v>33.19101493818233</v>
+      </c>
+      <c r="R8">
+        <v>199.146089629094</v>
+      </c>
+      <c r="S8">
+        <v>0.1075028895842452</v>
+      </c>
+      <c r="T8">
+        <v>0.07571377668095017</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.105368666666666</v>
+      </c>
+      <c r="H9">
+        <v>3.316106</v>
+      </c>
+      <c r="I9">
+        <v>0.8008701093481206</v>
+      </c>
+      <c r="J9">
+        <v>0.8008701093481208</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>5.359535</v>
+      </c>
+      <c r="N9">
+        <v>16.078605</v>
+      </c>
+      <c r="O9">
+        <v>0.02395917067475312</v>
+      </c>
+      <c r="P9">
+        <v>0.02531149588087277</v>
+      </c>
+      <c r="Q9">
+        <v>5.924262056903332</v>
+      </c>
+      <c r="R9">
+        <v>53.31835851212999</v>
+      </c>
+      <c r="S9">
+        <v>0.01918818363817982</v>
+      </c>
+      <c r="T9">
+        <v>0.02027122047387908</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.105368666666666</v>
+      </c>
+      <c r="H10">
+        <v>3.316106</v>
+      </c>
+      <c r="I10">
+        <v>0.8008701093481206</v>
+      </c>
+      <c r="J10">
+        <v>0.8008701093481208</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>63.82578633333333</v>
+      </c>
+      <c r="N10">
+        <v>191.477359</v>
+      </c>
+      <c r="O10">
+        <v>0.2853256687773582</v>
+      </c>
+      <c r="P10">
+        <v>0.3014302785352894</v>
+      </c>
+      <c r="Q10">
+        <v>70.5510243382282</v>
+      </c>
+      <c r="R10">
+        <v>634.959219044054</v>
+      </c>
+      <c r="S10">
+        <v>0.2285087995535485</v>
+      </c>
+      <c r="T10">
+        <v>0.2414065001313917</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.105368666666666</v>
+      </c>
+      <c r="H11">
+        <v>3.316106</v>
+      </c>
+      <c r="I11">
+        <v>0.8008701093481206</v>
+      </c>
+      <c r="J11">
+        <v>0.8008701093481208</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>93.36864199999998</v>
+      </c>
+      <c r="N11">
+        <v>280.105926</v>
+      </c>
+      <c r="O11">
+        <v>0.4173935293543045</v>
+      </c>
+      <c r="P11">
+        <v>0.4409524328856299</v>
+      </c>
+      <c r="Q11">
+        <v>103.2067713160173</v>
+      </c>
+      <c r="R11">
+        <v>928.8609418441557</v>
+      </c>
+      <c r="S11">
+        <v>0.3342780014951798</v>
+      </c>
+      <c r="T11">
+        <v>0.3531456231424343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.105368666666666</v>
+      </c>
+      <c r="H12">
+        <v>3.316106</v>
+      </c>
+      <c r="I12">
+        <v>0.8008701093481206</v>
+      </c>
+      <c r="J12">
+        <v>0.8008701093481208</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>25.286359</v>
+      </c>
+      <c r="N12">
+        <v>75.859077</v>
+      </c>
+      <c r="O12">
+        <v>0.1130396930002472</v>
+      </c>
+      <c r="P12">
+        <v>0.1194199817093778</v>
+      </c>
+      <c r="Q12">
+        <v>27.95074893268466</v>
+      </c>
+      <c r="R12">
+        <v>251.556740394162</v>
+      </c>
+      <c r="S12">
+        <v>0.09053011129378594</v>
+      </c>
+      <c r="T12">
+        <v>0.09563989380993998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.105368666666666</v>
+      </c>
+      <c r="H13">
+        <v>3.316106</v>
+      </c>
+      <c r="I13">
+        <v>0.8008701093481206</v>
+      </c>
+      <c r="J13">
+        <v>0.8008701093481208</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>5.8270905</v>
+      </c>
+      <c r="N13">
+        <v>11.654181</v>
+      </c>
+      <c r="O13">
+        <v>0.0260493225301696</v>
+      </c>
+      <c r="P13">
+        <v>0.01834641465328899</v>
+      </c>
+      <c r="Q13">
+        <v>6.441083256530998</v>
+      </c>
+      <c r="R13">
+        <v>38.646499539186</v>
+      </c>
+      <c r="S13">
+        <v>0.02086212378318139</v>
+      </c>
+      <c r="T13">
+        <v>0.01469309510952552</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.052073</v>
+      </c>
+      <c r="H14">
+        <v>0.156219</v>
+      </c>
+      <c r="I14">
+        <v>0.0377283258171645</v>
+      </c>
+      <c r="J14">
+        <v>0.0377283258171645</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>30.0270995</v>
+      </c>
+      <c r="N14">
+        <v>60.054199</v>
+      </c>
+      <c r="O14">
+        <v>0.1342326156631674</v>
+      </c>
+      <c r="P14">
+        <v>0.09453939633554115</v>
+      </c>
+      <c r="Q14">
+        <v>1.5636011522635</v>
+      </c>
+      <c r="R14">
+        <v>9.381606913580999</v>
+      </c>
+      <c r="S14">
+        <v>0.005064371859030199</v>
+      </c>
+      <c r="T14">
+        <v>0.003566813147505344</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.052073</v>
+      </c>
+      <c r="H15">
+        <v>0.156219</v>
+      </c>
+      <c r="I15">
+        <v>0.0377283258171645</v>
+      </c>
+      <c r="J15">
+        <v>0.0377283258171645</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>5.359535</v>
+      </c>
+      <c r="N15">
+        <v>16.078605</v>
+      </c>
+      <c r="O15">
+        <v>0.02395917067475312</v>
+      </c>
+      <c r="P15">
+        <v>0.02531149588087277</v>
+      </c>
+      <c r="Q15">
+        <v>0.279087066055</v>
+      </c>
+      <c r="R15">
+        <v>2.511783594495</v>
+      </c>
+      <c r="S15">
+        <v>0.0009039393975261387</v>
+      </c>
+      <c r="T15">
+        <v>0.0009549603635133849</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.052073</v>
+      </c>
+      <c r="H16">
+        <v>0.156219</v>
+      </c>
+      <c r="I16">
+        <v>0.0377283258171645</v>
+      </c>
+      <c r="J16">
+        <v>0.0377283258171645</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>63.82578633333333</v>
+      </c>
+      <c r="N16">
+        <v>191.477359</v>
+      </c>
+      <c r="O16">
+        <v>0.2853256687773582</v>
+      </c>
+      <c r="P16">
+        <v>0.3014302785352894</v>
+      </c>
+      <c r="Q16">
+        <v>3.323600171735667</v>
+      </c>
+      <c r="R16">
+        <v>29.912401545621</v>
+      </c>
+      <c r="S16">
+        <v>0.01076485979563253</v>
+      </c>
+      <c r="T16">
+        <v>0.01137245975973804</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.052073</v>
+      </c>
+      <c r="H17">
+        <v>0.156219</v>
+      </c>
+      <c r="I17">
+        <v>0.0377283258171645</v>
+      </c>
+      <c r="J17">
+        <v>0.0377283258171645</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>93.36864199999998</v>
+      </c>
+      <c r="N17">
+        <v>280.105926</v>
+      </c>
+      <c r="O17">
+        <v>0.4173935293543045</v>
+      </c>
+      <c r="P17">
+        <v>0.4409524328856299</v>
+      </c>
+      <c r="Q17">
+        <v>4.861985294865999</v>
+      </c>
+      <c r="R17">
+        <v>43.75786765379399</v>
+      </c>
+      <c r="S17">
+        <v>0.01574755906945541</v>
+      </c>
+      <c r="T17">
+        <v>0.0166363970577804</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.052073</v>
+      </c>
+      <c r="H18">
+        <v>0.156219</v>
+      </c>
+      <c r="I18">
+        <v>0.0377283258171645</v>
+      </c>
+      <c r="J18">
+        <v>0.0377283258171645</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>25.286359</v>
+      </c>
+      <c r="N18">
+        <v>75.859077</v>
+      </c>
+      <c r="O18">
+        <v>0.1130396930002472</v>
+      </c>
+      <c r="P18">
+        <v>0.1194199817093778</v>
+      </c>
+      <c r="Q18">
+        <v>1.316736572207</v>
+      </c>
+      <c r="R18">
+        <v>11.850629149863</v>
+      </c>
+      <c r="S18">
+        <v>0.004264798367785574</v>
+      </c>
+      <c r="T18">
+        <v>0.00450551597901123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.052073</v>
+      </c>
+      <c r="H19">
+        <v>0.156219</v>
+      </c>
+      <c r="I19">
+        <v>0.0377283258171645</v>
+      </c>
+      <c r="J19">
+        <v>0.0377283258171645</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>5.8270905</v>
+      </c>
+      <c r="N19">
+        <v>11.654181</v>
+      </c>
+      <c r="O19">
+        <v>0.0260493225301696</v>
+      </c>
+      <c r="P19">
+        <v>0.01834641465328899</v>
+      </c>
+      <c r="Q19">
+        <v>0.3034340836065</v>
+      </c>
+      <c r="R19">
+        <v>1.820604501639</v>
+      </c>
+      <c r="S19">
+        <v>0.0009827973277346423</v>
+      </c>
+      <c r="T19">
+        <v>0.0006921795096160882</v>
       </c>
     </row>
   </sheetData>
